--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Dll3-Notch2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Dll3-Notch2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,6 +88,9 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Notch2</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.334443</v>
+        <v>0.3453386666666667</v>
       </c>
       <c r="H2">
-        <v>1.003329</v>
+        <v>1.036016</v>
       </c>
       <c r="I2">
-        <v>0.3499365577394326</v>
+        <v>0.2594726725147298</v>
       </c>
       <c r="J2">
-        <v>0.3499365577394326</v>
+        <v>0.2594726725147297</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.217312</v>
+        <v>3.010057666666667</v>
       </c>
       <c r="N2">
-        <v>3.651936000000001</v>
+        <v>9.030173</v>
       </c>
       <c r="O2">
-        <v>0.00511250363603795</v>
+        <v>0.01322668995706902</v>
       </c>
       <c r="P2">
-        <v>0.005112503636037949</v>
+        <v>0.01322668995706902</v>
       </c>
       <c r="Q2">
-        <v>0.4071214772160001</v>
+        <v>1.039489301196444</v>
       </c>
       <c r="R2">
-        <v>3.664093294944001</v>
+        <v>9.355403710768</v>
       </c>
       <c r="S2">
-        <v>0.001789051923825453</v>
+        <v>0.003431964591684436</v>
       </c>
       <c r="T2">
-        <v>0.001789051923825453</v>
+        <v>0.003431964591684435</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.334443</v>
+        <v>0.3453386666666667</v>
       </c>
       <c r="H3">
-        <v>1.003329</v>
+        <v>1.036016</v>
       </c>
       <c r="I3">
-        <v>0.3499365577394326</v>
+        <v>0.2594726725147298</v>
       </c>
       <c r="J3">
-        <v>0.3499365577394326</v>
+        <v>0.2594726725147297</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>55.904827</v>
       </c>
       <c r="O3">
-        <v>0.07826359260117714</v>
+        <v>0.08188501082233764</v>
       </c>
       <c r="P3">
-        <v>0.07826359260117714</v>
+        <v>0.08188501082233764</v>
       </c>
       <c r="Q3">
-        <v>6.232326018787</v>
+        <v>6.435366138803555</v>
       </c>
       <c r="R3">
-        <v>56.09093416908301</v>
+        <v>57.918295249232</v>
       </c>
       <c r="S3">
-        <v>0.02738729219117726</v>
+        <v>0.02124692259696952</v>
       </c>
       <c r="T3">
-        <v>0.02738729219117726</v>
+        <v>0.02124692259696951</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.334443</v>
+        <v>0.3453386666666667</v>
       </c>
       <c r="H4">
-        <v>1.003329</v>
+        <v>1.036016</v>
       </c>
       <c r="I4">
-        <v>0.3499365577394326</v>
+        <v>0.2594726725147298</v>
       </c>
       <c r="J4">
-        <v>0.3499365577394326</v>
+        <v>0.2594726725147297</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>53.13354766666667</v>
+        <v>68.92011666666667</v>
       </c>
       <c r="N4">
-        <v>159.400643</v>
+        <v>206.76035</v>
       </c>
       <c r="O4">
-        <v>0.2231518753133371</v>
+        <v>0.3028463623969415</v>
       </c>
       <c r="P4">
-        <v>0.2231518753133371</v>
+        <v>0.3028463623969415</v>
       </c>
       <c r="Q4">
-        <v>17.770143082283</v>
+        <v>23.80078119617778</v>
       </c>
       <c r="R4">
-        <v>159.931287740547</v>
+        <v>214.2070307656</v>
       </c>
       <c r="S4">
-        <v>0.07808899910024825</v>
+        <v>0.07858035501249878</v>
       </c>
       <c r="T4">
-        <v>0.07808899910024825</v>
+        <v>0.07858035501249876</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.334443</v>
+        <v>0.3453386666666667</v>
       </c>
       <c r="H5">
-        <v>1.003329</v>
+        <v>1.036016</v>
       </c>
       <c r="I5">
-        <v>0.3499365577394326</v>
+        <v>0.2594726725147298</v>
       </c>
       <c r="J5">
-        <v>0.3499365577394326</v>
+        <v>0.2594726725147297</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>27.81494466666667</v>
+        <v>8.793419333333334</v>
       </c>
       <c r="N5">
-        <v>83.444834</v>
+        <v>26.380258</v>
       </c>
       <c r="O5">
-        <v>0.1168180431512444</v>
+        <v>0.03863973520258026</v>
       </c>
       <c r="P5">
-        <v>0.1168180431512444</v>
+        <v>0.03863973520258026</v>
       </c>
       <c r="Q5">
-        <v>9.302513539154001</v>
+        <v>3.036707708014223</v>
       </c>
       <c r="R5">
-        <v>83.72262185238601</v>
+        <v>27.330369372128</v>
       </c>
       <c r="S5">
-        <v>0.04087890390220298</v>
+        <v>0.01002595535827498</v>
       </c>
       <c r="T5">
-        <v>0.04087890390220298</v>
+        <v>0.01002595535827498</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.334443</v>
+        <v>0.3453386666666667</v>
       </c>
       <c r="H6">
-        <v>1.003329</v>
+        <v>1.036016</v>
       </c>
       <c r="I6">
-        <v>0.3499365577394326</v>
+        <v>0.2594726725147298</v>
       </c>
       <c r="J6">
-        <v>0.3499365577394326</v>
+        <v>0.2594726725147297</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>84.82882833333333</v>
+        <v>96.58853933333334</v>
       </c>
       <c r="N6">
-        <v>254.486485</v>
+        <v>289.765618</v>
       </c>
       <c r="O6">
-        <v>0.3562666705782951</v>
+        <v>0.4244259760587643</v>
       </c>
       <c r="P6">
-        <v>0.3562666705782951</v>
+        <v>0.4244259760587643</v>
       </c>
       <c r="Q6">
-        <v>28.370407834285</v>
+        <v>33.35575738865423</v>
       </c>
       <c r="R6">
-        <v>255.3336705085651</v>
+        <v>300.201816497888</v>
       </c>
       <c r="S6">
-        <v>0.124670732339457</v>
+        <v>0.1101269422926403</v>
       </c>
       <c r="T6">
-        <v>0.124670732339457</v>
+        <v>0.1101269422926403</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.334443</v>
+        <v>0.3453386666666667</v>
       </c>
       <c r="H7">
-        <v>1.003329</v>
+        <v>1.036016</v>
       </c>
       <c r="I7">
-        <v>0.3499365577394326</v>
+        <v>0.2594726725147298</v>
       </c>
       <c r="J7">
-        <v>0.3499365577394326</v>
+        <v>0.2594726725147297</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>52.47529233333334</v>
+        <v>31.62744833333333</v>
       </c>
       <c r="N7">
-        <v>157.425877</v>
+        <v>94.882345</v>
       </c>
       <c r="O7">
-        <v>0.2203873147199083</v>
+        <v>0.1389762255623074</v>
       </c>
       <c r="P7">
-        <v>0.2203873147199082</v>
+        <v>0.1389762255623074</v>
       </c>
       <c r="Q7">
-        <v>17.549994193837</v>
+        <v>10.92218083750222</v>
       </c>
       <c r="R7">
-        <v>157.949947744533</v>
+        <v>98.29962753752001</v>
       </c>
       <c r="S7">
-        <v>0.07712157828252168</v>
+        <v>0.03606053266266181</v>
       </c>
       <c r="T7">
-        <v>0.07712157828252168</v>
+        <v>0.0360605326626618</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>0.5999680000000001</v>
       </c>
       <c r="I8">
-        <v>0.2092541296761201</v>
+        <v>0.1502634132902556</v>
       </c>
       <c r="J8">
-        <v>0.2092541296761201</v>
+        <v>0.1502634132902555</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.217312</v>
+        <v>3.010057666666667</v>
       </c>
       <c r="N8">
-        <v>3.651936000000001</v>
+        <v>9.030173</v>
       </c>
       <c r="O8">
-        <v>0.00511250363603795</v>
+        <v>0.01322668995706902</v>
       </c>
       <c r="P8">
-        <v>0.005112503636037949</v>
+        <v>0.01322668995706902</v>
       </c>
       <c r="Q8">
-        <v>0.2434494153386667</v>
+        <v>0.6019794260515556</v>
       </c>
       <c r="R8">
-        <v>2.191044738048001</v>
+        <v>5.417814834464</v>
       </c>
       <c r="S8">
-        <v>0.001069812498825121</v>
+        <v>0.001987487579481135</v>
       </c>
       <c r="T8">
-        <v>0.001069812498825121</v>
+        <v>0.001987487579481135</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>0.5999680000000001</v>
       </c>
       <c r="I9">
-        <v>0.2092541296761201</v>
+        <v>0.1502634132902556</v>
       </c>
       <c r="J9">
-        <v>0.2092541296761201</v>
+        <v>0.1502634132902555</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>55.904827</v>
       </c>
       <c r="O9">
-        <v>0.07826359260117714</v>
+        <v>0.08188501082233764</v>
       </c>
       <c r="P9">
-        <v>0.07826359260117714</v>
+        <v>0.08188501082233764</v>
       </c>
       <c r="Q9">
         <v>3.726789693948444</v>
@@ -1013,10 +1013,10 @@
         <v>33.541107245536</v>
       </c>
       <c r="S9">
-        <v>0.01637697995508576</v>
+        <v>0.01230432122347397</v>
       </c>
       <c r="T9">
-        <v>0.01637697995508576</v>
+        <v>0.01230432122347397</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1045,10 +1045,10 @@
         <v>0.5999680000000001</v>
       </c>
       <c r="I10">
-        <v>0.2092541296761201</v>
+        <v>0.1502634132902556</v>
       </c>
       <c r="J10">
-        <v>0.2092541296761201</v>
+        <v>0.1502634132902555</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>53.13354766666667</v>
+        <v>68.92011666666667</v>
       </c>
       <c r="N10">
-        <v>159.400643</v>
+        <v>206.76035</v>
       </c>
       <c r="O10">
-        <v>0.2231518753133371</v>
+        <v>0.3028463623969415</v>
       </c>
       <c r="P10">
-        <v>0.2231518753133371</v>
+        <v>0.3028463623969415</v>
       </c>
       <c r="Q10">
-        <v>10.62614277549156</v>
+        <v>13.78328818542222</v>
       </c>
       <c r="R10">
-        <v>95.63528497942401</v>
+        <v>124.0495936688</v>
       </c>
       <c r="S10">
-        <v>0.04669545145428643</v>
+        <v>0.04550672811630213</v>
       </c>
       <c r="T10">
-        <v>0.04669545145428643</v>
+        <v>0.04550672811630212</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
@@ -1107,10 +1107,10 @@
         <v>0.5999680000000001</v>
       </c>
       <c r="I11">
-        <v>0.2092541296761201</v>
+        <v>0.1502634132902556</v>
       </c>
       <c r="J11">
-        <v>0.2092541296761201</v>
+        <v>0.1502634132902555</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>27.81494466666667</v>
+        <v>8.793419333333334</v>
       </c>
       <c r="N11">
-        <v>83.444834</v>
+        <v>26.380258</v>
       </c>
       <c r="O11">
-        <v>0.1168180431512444</v>
+        <v>0.03863973520258026</v>
       </c>
       <c r="P11">
-        <v>0.1168180431512444</v>
+        <v>0.03863973520258026</v>
       </c>
       <c r="Q11">
-        <v>5.562692240590223</v>
+        <v>1.758590070193778</v>
       </c>
       <c r="R11">
-        <v>50.064230165312</v>
+        <v>15.827310631744</v>
       </c>
       <c r="S11">
-        <v>0.0244446579500811</v>
+        <v>0.005806138500171354</v>
       </c>
       <c r="T11">
-        <v>0.0244446579500811</v>
+        <v>0.005806138500171353</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1169,10 +1169,10 @@
         <v>0.5999680000000001</v>
       </c>
       <c r="I12">
-        <v>0.2092541296761201</v>
+        <v>0.1502634132902556</v>
       </c>
       <c r="J12">
-        <v>0.2092541296761201</v>
+        <v>0.1502634132902555</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>84.82882833333333</v>
+        <v>96.58853933333334</v>
       </c>
       <c r="N12">
-        <v>254.486485</v>
+        <v>289.765618</v>
       </c>
       <c r="O12">
-        <v>0.3562666705782951</v>
+        <v>0.4244259760587643</v>
       </c>
       <c r="P12">
-        <v>0.3562666705782951</v>
+        <v>0.4244259760587643</v>
       </c>
       <c r="Q12">
-        <v>16.96486082583111</v>
+        <v>19.31667758891378</v>
       </c>
       <c r="R12">
-        <v>152.68374743248</v>
+        <v>173.850098300224</v>
       </c>
       <c r="S12">
-        <v>0.07455027208447014</v>
+        <v>0.0637756958516382</v>
       </c>
       <c r="T12">
-        <v>0.07455027208447014</v>
+        <v>0.06377569585163818</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1231,10 +1231,10 @@
         <v>0.5999680000000001</v>
       </c>
       <c r="I13">
-        <v>0.2092541296761201</v>
+        <v>0.1502634132902556</v>
       </c>
       <c r="J13">
-        <v>0.2092541296761201</v>
+        <v>0.1502634132902555</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>52.47529233333334</v>
+        <v>31.62744833333333</v>
       </c>
       <c r="N13">
-        <v>157.425877</v>
+        <v>94.882345</v>
       </c>
       <c r="O13">
-        <v>0.2203873147199083</v>
+        <v>0.1389762255623074</v>
       </c>
       <c r="P13">
-        <v>0.2203873147199082</v>
+        <v>0.1389762255623074</v>
       </c>
       <c r="Q13">
-        <v>10.49449873021511</v>
+        <v>6.325152307217778</v>
       </c>
       <c r="R13">
-        <v>94.45048857193602</v>
+        <v>56.92637076496001</v>
       </c>
       <c r="S13">
-        <v>0.04611695573337158</v>
+        <v>0.02088304201918878</v>
       </c>
       <c r="T13">
-        <v>0.04611695573337157</v>
+        <v>0.02088304201918877</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.08807066666666667</v>
+        <v>0.05745766666666666</v>
       </c>
       <c r="H14">
-        <v>0.264212</v>
+        <v>0.172373</v>
       </c>
       <c r="I14">
-        <v>0.09215066821895009</v>
+        <v>0.04317122803063032</v>
       </c>
       <c r="J14">
-        <v>0.09215066821895007</v>
+        <v>0.04317122803063032</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.217312</v>
+        <v>3.010057666666667</v>
       </c>
       <c r="N14">
-        <v>3.651936000000001</v>
+        <v>9.030173</v>
       </c>
       <c r="O14">
-        <v>0.00511250363603795</v>
+        <v>0.01322668995706902</v>
       </c>
       <c r="P14">
-        <v>0.005112503636037949</v>
+        <v>0.01322668995706902</v>
       </c>
       <c r="Q14">
-        <v>0.1072094793813334</v>
+        <v>0.1729508900587778</v>
       </c>
       <c r="R14">
-        <v>0.9648853144320001</v>
+        <v>1.556558010529</v>
       </c>
       <c r="S14">
-        <v>0.0004711206263327091</v>
+        <v>0.0005710124482270748</v>
       </c>
       <c r="T14">
-        <v>0.0004711206263327089</v>
+        <v>0.0005710124482270748</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.08807066666666667</v>
+        <v>0.05745766666666666</v>
       </c>
       <c r="H15">
-        <v>0.264212</v>
+        <v>0.172373</v>
       </c>
       <c r="I15">
-        <v>0.09215066821895009</v>
+        <v>0.04317122803063032</v>
       </c>
       <c r="J15">
-        <v>0.09215066821895007</v>
+        <v>0.04317122803063032</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>55.904827</v>
       </c>
       <c r="O15">
-        <v>0.07826359260117714</v>
+        <v>0.08188501082233764</v>
       </c>
       <c r="P15">
-        <v>0.07826359260117714</v>
+        <v>0.08188501082233764</v>
       </c>
       <c r="Q15">
-        <v>1.641191794591556</v>
+        <v>1.070720304941222</v>
       </c>
       <c r="R15">
-        <v>14.770726151324</v>
+        <v>9.636482744471</v>
       </c>
       <c r="S15">
-        <v>0.007212042355414151</v>
+        <v>0.00353507647450177</v>
       </c>
       <c r="T15">
-        <v>0.00721204235541415</v>
+        <v>0.00353507647450177</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,10 +1396,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -1411,16 +1411,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.08807066666666667</v>
+        <v>0.05745766666666666</v>
       </c>
       <c r="H16">
-        <v>0.264212</v>
+        <v>0.172373</v>
       </c>
       <c r="I16">
-        <v>0.09215066821895009</v>
+        <v>0.04317122803063032</v>
       </c>
       <c r="J16">
-        <v>0.09215066821895007</v>
+        <v>0.04317122803063032</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>53.13354766666667</v>
+        <v>68.92011666666667</v>
       </c>
       <c r="N16">
-        <v>159.400643</v>
+        <v>206.76035</v>
       </c>
       <c r="O16">
-        <v>0.2231518753133371</v>
+        <v>0.3028463623969415</v>
       </c>
       <c r="P16">
-        <v>0.2231518753133371</v>
+        <v>0.3028463623969415</v>
       </c>
       <c r="Q16">
-        <v>4.679506965368445</v>
+        <v>3.959989090061111</v>
       </c>
       <c r="R16">
-        <v>42.115562688316</v>
+        <v>35.63990181055</v>
       </c>
       <c r="S16">
-        <v>0.02056359442443584</v>
+        <v>0.01307424936928527</v>
       </c>
       <c r="T16">
-        <v>0.02056359442443584</v>
+        <v>0.01307424936928527</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
@@ -1473,16 +1473,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.08807066666666667</v>
+        <v>0.05745766666666666</v>
       </c>
       <c r="H17">
-        <v>0.264212</v>
+        <v>0.172373</v>
       </c>
       <c r="I17">
-        <v>0.09215066821895009</v>
+        <v>0.04317122803063032</v>
       </c>
       <c r="J17">
-        <v>0.09215066821895007</v>
+        <v>0.04317122803063032</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>27.81494466666667</v>
+        <v>8.793419333333334</v>
       </c>
       <c r="N17">
-        <v>83.444834</v>
+        <v>26.380258</v>
       </c>
       <c r="O17">
-        <v>0.1168180431512444</v>
+        <v>0.03863973520258026</v>
       </c>
       <c r="P17">
-        <v>0.1168180431512444</v>
+        <v>0.03863973520258026</v>
       </c>
       <c r="Q17">
-        <v>2.449680720089778</v>
+        <v>0.5052493569148889</v>
       </c>
       <c r="R17">
-        <v>22.047126480808</v>
+        <v>4.547244212234</v>
       </c>
       <c r="S17">
-        <v>0.01076486073641732</v>
+        <v>0.001668124819473766</v>
       </c>
       <c r="T17">
-        <v>0.01076486073641732</v>
+        <v>0.001668124819473766</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1535,16 +1535,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.08807066666666667</v>
+        <v>0.05745766666666666</v>
       </c>
       <c r="H18">
-        <v>0.264212</v>
+        <v>0.172373</v>
       </c>
       <c r="I18">
-        <v>0.09215066821895009</v>
+        <v>0.04317122803063032</v>
       </c>
       <c r="J18">
-        <v>0.09215066821895007</v>
+        <v>0.04317122803063032</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>84.82882833333333</v>
+        <v>96.58853933333334</v>
       </c>
       <c r="N18">
-        <v>254.486485</v>
+        <v>289.765618</v>
       </c>
       <c r="O18">
-        <v>0.3562666705782951</v>
+        <v>0.4244259760587643</v>
       </c>
       <c r="P18">
-        <v>0.3562666705782951</v>
+        <v>0.4244259760587643</v>
       </c>
       <c r="Q18">
-        <v>7.470931463868889</v>
+        <v>5.549752096834889</v>
       </c>
       <c r="R18">
-        <v>67.23838317482</v>
+        <v>49.947768871514</v>
       </c>
       <c r="S18">
-        <v>0.03283021175793046</v>
+        <v>0.01832299059455576</v>
       </c>
       <c r="T18">
-        <v>0.03283021175793046</v>
+        <v>0.01832299059455576</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1597,16 +1597,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.08807066666666667</v>
+        <v>0.05745766666666666</v>
       </c>
       <c r="H19">
-        <v>0.264212</v>
+        <v>0.172373</v>
       </c>
       <c r="I19">
-        <v>0.09215066821895009</v>
+        <v>0.04317122803063032</v>
       </c>
       <c r="J19">
-        <v>0.09215066821895007</v>
+        <v>0.04317122803063032</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>52.47529233333334</v>
+        <v>31.62744833333333</v>
       </c>
       <c r="N19">
-        <v>157.425877</v>
+        <v>94.882345</v>
       </c>
       <c r="O19">
-        <v>0.2203873147199083</v>
+        <v>0.1389762255623074</v>
       </c>
       <c r="P19">
-        <v>0.2203873147199082</v>
+        <v>0.1389762255623074</v>
       </c>
       <c r="Q19">
-        <v>4.621533979324889</v>
+        <v>1.817239383853889</v>
       </c>
       <c r="R19">
-        <v>41.59380581392401</v>
+        <v>16.355154454685</v>
       </c>
       <c r="S19">
-        <v>0.0203088383184196</v>
+        <v>0.005999774324586688</v>
       </c>
       <c r="T19">
-        <v>0.0203088383184196</v>
+        <v>0.005999774324586688</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.176371</v>
+        <v>0.4190853333333334</v>
       </c>
       <c r="H20">
-        <v>0.5291130000000001</v>
+        <v>1.257256</v>
       </c>
       <c r="I20">
-        <v>0.1845416427464814</v>
+        <v>0.3148827569797948</v>
       </c>
       <c r="J20">
-        <v>0.1845416427464814</v>
+        <v>0.3148827569797948</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.217312</v>
+        <v>3.010057666666667</v>
       </c>
       <c r="N20">
-        <v>3.651936000000001</v>
+        <v>9.030173</v>
       </c>
       <c r="O20">
-        <v>0.00511250363603795</v>
+        <v>0.01322668995706902</v>
       </c>
       <c r="P20">
-        <v>0.005112503636037949</v>
+        <v>0.01322668995706902</v>
       </c>
       <c r="Q20">
-        <v>0.2146985347520001</v>
+        <v>1.261471020587556</v>
       </c>
       <c r="R20">
-        <v>1.932286812768</v>
+        <v>11.353239185288</v>
       </c>
       <c r="S20">
-        <v>0.0009434698195418024</v>
+        <v>0.004164856599398858</v>
       </c>
       <c r="T20">
-        <v>0.0009434698195418022</v>
+        <v>0.004164856599398858</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.176371</v>
+        <v>0.4190853333333334</v>
       </c>
       <c r="H21">
-        <v>0.5291130000000001</v>
+        <v>1.257256</v>
       </c>
       <c r="I21">
-        <v>0.1845416427464814</v>
+        <v>0.3148827569797948</v>
       </c>
       <c r="J21">
-        <v>0.1845416427464814</v>
+        <v>0.3148827569797948</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>55.904827</v>
       </c>
       <c r="O21">
-        <v>0.07826359260117714</v>
+        <v>0.08188501082233764</v>
       </c>
       <c r="P21">
-        <v>0.07826359260117714</v>
+        <v>0.08188501082233764</v>
       </c>
       <c r="Q21">
-        <v>3.286663414272334</v>
+        <v>7.809631019412445</v>
       </c>
       <c r="R21">
-        <v>29.579970728451</v>
+        <v>70.28667917471201</v>
       </c>
       <c r="S21">
-        <v>0.0144428919458626</v>
+        <v>0.02578417796305801</v>
       </c>
       <c r="T21">
-        <v>0.0144428919458626</v>
+        <v>0.02578417796305801</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.176371</v>
+        <v>0.4190853333333334</v>
       </c>
       <c r="H22">
-        <v>0.5291130000000001</v>
+        <v>1.257256</v>
       </c>
       <c r="I22">
-        <v>0.1845416427464814</v>
+        <v>0.3148827569797948</v>
       </c>
       <c r="J22">
-        <v>0.1845416427464814</v>
+        <v>0.3148827569797948</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>53.13354766666667</v>
+        <v>68.92011666666667</v>
       </c>
       <c r="N22">
-        <v>159.400643</v>
+        <v>206.76035</v>
       </c>
       <c r="O22">
-        <v>0.2231518753133371</v>
+        <v>0.3028463623969415</v>
       </c>
       <c r="P22">
-        <v>0.2231518753133371</v>
+        <v>0.3028463623969415</v>
       </c>
       <c r="Q22">
-        <v>9.371216935517667</v>
+        <v>28.88341006662223</v>
       </c>
       <c r="R22">
-        <v>84.340952419659</v>
+        <v>259.9506905996001</v>
       </c>
       <c r="S22">
-        <v>0.04118081365228121</v>
+        <v>0.09536109753285099</v>
       </c>
       <c r="T22">
-        <v>0.04118081365228121</v>
+        <v>0.09536109753285099</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.176371</v>
+        <v>0.4190853333333334</v>
       </c>
       <c r="H23">
-        <v>0.5291130000000001</v>
+        <v>1.257256</v>
       </c>
       <c r="I23">
-        <v>0.1845416427464814</v>
+        <v>0.3148827569797948</v>
       </c>
       <c r="J23">
-        <v>0.1845416427464814</v>
+        <v>0.3148827569797948</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>27.81494466666667</v>
+        <v>8.793419333333334</v>
       </c>
       <c r="N23">
-        <v>83.444834</v>
+        <v>26.380258</v>
       </c>
       <c r="O23">
-        <v>0.1168180431512444</v>
+        <v>0.03863973520258026</v>
       </c>
       <c r="P23">
-        <v>0.1168180431512444</v>
+        <v>0.03863973520258026</v>
       </c>
       <c r="Q23">
-        <v>4.905749605804667</v>
+        <v>3.685193072449779</v>
       </c>
       <c r="R23">
-        <v>44.151746452242</v>
+        <v>33.16673765204801</v>
       </c>
       <c r="S23">
-        <v>0.02155779358556</v>
+        <v>0.0121669863495577</v>
       </c>
       <c r="T23">
-        <v>0.02155779358556</v>
+        <v>0.0121669863495577</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.176371</v>
+        <v>0.4190853333333334</v>
       </c>
       <c r="H24">
-        <v>0.5291130000000001</v>
+        <v>1.257256</v>
       </c>
       <c r="I24">
-        <v>0.1845416427464814</v>
+        <v>0.3148827569797948</v>
       </c>
       <c r="J24">
-        <v>0.1845416427464814</v>
+        <v>0.3148827569797948</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>84.82882833333333</v>
+        <v>96.58853933333334</v>
       </c>
       <c r="N24">
-        <v>254.486485</v>
+        <v>289.765618</v>
       </c>
       <c r="O24">
-        <v>0.3562666705782951</v>
+        <v>0.4244259760587643</v>
       </c>
       <c r="P24">
-        <v>0.3562666705782951</v>
+        <v>0.4244259760587643</v>
       </c>
       <c r="Q24">
-        <v>14.96134528197834</v>
+        <v>40.47884020268979</v>
       </c>
       <c r="R24">
-        <v>134.652107537805</v>
+        <v>364.3095618242081</v>
       </c>
       <c r="S24">
-        <v>0.06574603664433812</v>
+        <v>0.1336444214752241</v>
       </c>
       <c r="T24">
-        <v>0.06574603664433812</v>
+        <v>0.1336444214752241</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.176371</v>
+        <v>0.4190853333333334</v>
       </c>
       <c r="H25">
-        <v>0.5291130000000001</v>
+        <v>1.257256</v>
       </c>
       <c r="I25">
-        <v>0.1845416427464814</v>
+        <v>0.3148827569797948</v>
       </c>
       <c r="J25">
-        <v>0.1845416427464814</v>
+        <v>0.3148827569797948</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>52.47529233333334</v>
+        <v>31.62744833333333</v>
       </c>
       <c r="N25">
-        <v>157.425877</v>
+        <v>94.882345</v>
       </c>
       <c r="O25">
-        <v>0.2203873147199083</v>
+        <v>0.1389762255623074</v>
       </c>
       <c r="P25">
-        <v>0.2203873147199082</v>
+        <v>0.1389762255623074</v>
       </c>
       <c r="Q25">
-        <v>9.255119784122336</v>
+        <v>13.25459972725778</v>
       </c>
       <c r="R25">
-        <v>83.29607805710101</v>
+        <v>119.29139754532</v>
       </c>
       <c r="S25">
-        <v>0.04067063709889767</v>
+        <v>0.04376121705970518</v>
       </c>
       <c r="T25">
-        <v>0.04067063709889766</v>
+        <v>0.04376121705970518</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,10 +2016,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
@@ -2031,16 +2031,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.1568506666666667</v>
+        <v>0.2344363333333333</v>
       </c>
       <c r="H26">
-        <v>0.470552</v>
+        <v>0.703309</v>
       </c>
       <c r="I26">
-        <v>0.1641170016190158</v>
+        <v>0.176145412651602</v>
       </c>
       <c r="J26">
-        <v>0.1641170016190158</v>
+        <v>0.1761454126516019</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.217312</v>
+        <v>3.010057666666667</v>
       </c>
       <c r="N26">
-        <v>3.651936000000001</v>
+        <v>9.030173</v>
       </c>
       <c r="O26">
-        <v>0.00511250363603795</v>
+        <v>0.01322668995706902</v>
       </c>
       <c r="P26">
-        <v>0.005112503636037949</v>
+        <v>0.01322668995706902</v>
       </c>
       <c r="Q26">
-        <v>0.1909361987413334</v>
+        <v>0.7056668824952221</v>
       </c>
       <c r="R26">
-        <v>1.718425788672</v>
+        <v>6.351001942457</v>
       </c>
       <c r="S26">
-        <v>0.0008390487675128643</v>
+        <v>0.002329820760502723</v>
       </c>
       <c r="T26">
-        <v>0.0008390487675128643</v>
+        <v>0.002329820760502722</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,10 +2078,10 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
@@ -2093,16 +2093,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>0.1568506666666667</v>
+        <v>0.2344363333333333</v>
       </c>
       <c r="H27">
-        <v>0.470552</v>
+        <v>0.703309</v>
       </c>
       <c r="I27">
-        <v>0.1641170016190158</v>
+        <v>0.176145412651602</v>
       </c>
       <c r="J27">
-        <v>0.1641170016190158</v>
+        <v>0.1761454126516019</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>55.904827</v>
       </c>
       <c r="O27">
-        <v>0.07826359260117714</v>
+        <v>0.08188501082233764</v>
       </c>
       <c r="P27">
-        <v>0.07826359260117714</v>
+        <v>0.08188501082233764</v>
       </c>
       <c r="Q27">
-        <v>2.922903128278222</v>
+        <v>4.368707552504778</v>
       </c>
       <c r="R27">
-        <v>26.306128154504</v>
+        <v>39.31836797254299</v>
       </c>
       <c r="S27">
-        <v>0.01284438615363738</v>
+        <v>0.01442366902128156</v>
       </c>
       <c r="T27">
-        <v>0.01284438615363738</v>
+        <v>0.01442366902128155</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,10 +2140,10 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
@@ -2155,16 +2155,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>0.1568506666666667</v>
+        <v>0.2344363333333333</v>
       </c>
       <c r="H28">
-        <v>0.470552</v>
+        <v>0.703309</v>
       </c>
       <c r="I28">
-        <v>0.1641170016190158</v>
+        <v>0.176145412651602</v>
       </c>
       <c r="J28">
-        <v>0.1641170016190158</v>
+        <v>0.1761454126516019</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>53.13354766666667</v>
+        <v>68.92011666666667</v>
       </c>
       <c r="N28">
-        <v>159.400643</v>
+        <v>206.76035</v>
       </c>
       <c r="O28">
-        <v>0.2231518753133371</v>
+        <v>0.3028463623969415</v>
       </c>
       <c r="P28">
-        <v>0.2231518753133371</v>
+        <v>0.3028463623969415</v>
       </c>
       <c r="Q28">
-        <v>8.334032373881778</v>
+        <v>16.15737944423889</v>
       </c>
       <c r="R28">
-        <v>75.006291364936</v>
+        <v>145.41641499815</v>
       </c>
       <c r="S28">
-        <v>0.03662301668208535</v>
+        <v>0.05334499747444586</v>
       </c>
       <c r="T28">
-        <v>0.03662301668208535</v>
+        <v>0.05334499747444585</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,10 +2202,10 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
         <v>23</v>
@@ -2217,16 +2217,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>0.1568506666666667</v>
+        <v>0.2344363333333333</v>
       </c>
       <c r="H29">
-        <v>0.470552</v>
+        <v>0.703309</v>
       </c>
       <c r="I29">
-        <v>0.1641170016190158</v>
+        <v>0.176145412651602</v>
       </c>
       <c r="J29">
-        <v>0.1641170016190158</v>
+        <v>0.1761454126516019</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>27.81494466666667</v>
+        <v>8.793419333333334</v>
       </c>
       <c r="N29">
-        <v>83.444834</v>
+        <v>26.380258</v>
       </c>
       <c r="O29">
-        <v>0.1168180431512444</v>
+        <v>0.03863973520258026</v>
       </c>
       <c r="P29">
-        <v>0.1168180431512444</v>
+        <v>0.03863973520258026</v>
       </c>
       <c r="Q29">
-        <v>4.362792614263111</v>
+        <v>2.061496985969111</v>
       </c>
       <c r="R29">
-        <v>39.265133528368</v>
+        <v>18.553472873722</v>
       </c>
       <c r="S29">
-        <v>0.01917182697698304</v>
+        <v>0.006806212102007131</v>
       </c>
       <c r="T29">
-        <v>0.01917182697698304</v>
+        <v>0.00680621210200713</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,13 +2264,13 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2279,16 +2279,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>0.1568506666666667</v>
+        <v>0.2344363333333333</v>
       </c>
       <c r="H30">
-        <v>0.470552</v>
+        <v>0.703309</v>
       </c>
       <c r="I30">
-        <v>0.1641170016190158</v>
+        <v>0.176145412651602</v>
       </c>
       <c r="J30">
-        <v>0.1641170016190158</v>
+        <v>0.1761454126516019</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>84.82882833333333</v>
+        <v>96.58853933333334</v>
       </c>
       <c r="N30">
-        <v>254.486485</v>
+        <v>289.765618</v>
       </c>
       <c r="O30">
-        <v>0.3562666705782951</v>
+        <v>0.4244259760587643</v>
       </c>
       <c r="P30">
-        <v>0.3562666705782951</v>
+        <v>0.4244259760587643</v>
       </c>
       <c r="Q30">
-        <v>13.30545827663556</v>
+        <v>22.64386300332911</v>
       </c>
       <c r="R30">
-        <v>119.74912448972</v>
+        <v>203.794767029962</v>
       </c>
       <c r="S30">
-        <v>0.05846941775209942</v>
+        <v>0.07476068869292997</v>
       </c>
       <c r="T30">
-        <v>0.05846941775209943</v>
+        <v>0.07476068869292996</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,13 +2326,13 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -2341,16 +2341,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>0.1568506666666667</v>
+        <v>0.2344363333333333</v>
       </c>
       <c r="H31">
-        <v>0.470552</v>
+        <v>0.703309</v>
       </c>
       <c r="I31">
-        <v>0.1641170016190158</v>
+        <v>0.176145412651602</v>
       </c>
       <c r="J31">
-        <v>0.1641170016190158</v>
+        <v>0.1761454126516019</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,400 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>52.47529233333334</v>
+        <v>31.62744833333333</v>
       </c>
       <c r="N31">
-        <v>157.425877</v>
+        <v>94.882345</v>
       </c>
       <c r="O31">
-        <v>0.2203873147199083</v>
+        <v>0.1389762255623074</v>
       </c>
       <c r="P31">
-        <v>0.2203873147199082</v>
+        <v>0.1389762255623074</v>
       </c>
       <c r="Q31">
-        <v>8.230784586011556</v>
+        <v>7.414623019956111</v>
       </c>
       <c r="R31">
-        <v>74.07706127410401</v>
+        <v>66.73160717960499</v>
       </c>
       <c r="S31">
-        <v>0.03616930528669773</v>
+        <v>0.02448002460043475</v>
       </c>
       <c r="T31">
-        <v>0.03616930528669773</v>
+        <v>0.02448002460043475</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G32">
+        <v>0.07461766666666667</v>
+      </c>
+      <c r="H32">
+        <v>0.223853</v>
+      </c>
+      <c r="I32">
+        <v>0.05606451653298771</v>
+      </c>
+      <c r="J32">
+        <v>0.05606451653298771</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>3.010057666666667</v>
+      </c>
+      <c r="N32">
+        <v>9.030173</v>
+      </c>
+      <c r="O32">
+        <v>0.01322668995706902</v>
+      </c>
+      <c r="P32">
+        <v>0.01322668995706902</v>
+      </c>
+      <c r="Q32">
+        <v>0.2246034796187778</v>
+      </c>
+      <c r="R32">
+        <v>2.021431316569</v>
+      </c>
+      <c r="S32">
+        <v>0.0007415479777747988</v>
+      </c>
+      <c r="T32">
+        <v>0.0007415479777747988</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G33">
+        <v>0.07461766666666667</v>
+      </c>
+      <c r="H33">
+        <v>0.223853</v>
+      </c>
+      <c r="I33">
+        <v>0.05606451653298771</v>
+      </c>
+      <c r="J33">
+        <v>0.05606451653298771</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>18.63494233333333</v>
+      </c>
+      <c r="N33">
+        <v>55.904827</v>
+      </c>
+      <c r="O33">
+        <v>0.08188501082233764</v>
+      </c>
+      <c r="P33">
+        <v>0.08188501082233764</v>
+      </c>
+      <c r="Q33">
+        <v>1.390495915381222</v>
+      </c>
+      <c r="R33">
+        <v>12.514463238431</v>
+      </c>
+      <c r="S33">
+        <v>0.004590843543052826</v>
+      </c>
+      <c r="T33">
+        <v>0.004590843543052826</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G34">
+        <v>0.07461766666666667</v>
+      </c>
+      <c r="H34">
+        <v>0.223853</v>
+      </c>
+      <c r="I34">
+        <v>0.05606451653298771</v>
+      </c>
+      <c r="J34">
+        <v>0.05606451653298771</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>68.92011666666667</v>
+      </c>
+      <c r="N34">
+        <v>206.76035</v>
+      </c>
+      <c r="O34">
+        <v>0.3028463623969415</v>
+      </c>
+      <c r="P34">
+        <v>0.3028463623969415</v>
+      </c>
+      <c r="Q34">
+        <v>5.142658292061111</v>
+      </c>
+      <c r="R34">
+        <v>46.28392462855</v>
+      </c>
+      <c r="S34">
+        <v>0.01697893489155852</v>
+      </c>
+      <c r="T34">
+        <v>0.01697893489155852</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G35">
+        <v>0.07461766666666667</v>
+      </c>
+      <c r="H35">
+        <v>0.223853</v>
+      </c>
+      <c r="I35">
+        <v>0.05606451653298771</v>
+      </c>
+      <c r="J35">
+        <v>0.05606451653298771</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>8.793419333333334</v>
+      </c>
+      <c r="N35">
+        <v>26.380258</v>
+      </c>
+      <c r="O35">
+        <v>0.03863973520258026</v>
+      </c>
+      <c r="P35">
+        <v>0.03863973520258026</v>
+      </c>
+      <c r="Q35">
+        <v>0.656144432674889</v>
+      </c>
+      <c r="R35">
+        <v>5.905299894074</v>
+      </c>
+      <c r="S35">
+        <v>0.002166318073095328</v>
+      </c>
+      <c r="T35">
+        <v>0.002166318073095328</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G36">
+        <v>0.07461766666666667</v>
+      </c>
+      <c r="H36">
+        <v>0.223853</v>
+      </c>
+      <c r="I36">
+        <v>0.05606451653298771</v>
+      </c>
+      <c r="J36">
+        <v>0.05606451653298771</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>96.58853933333334</v>
+      </c>
+      <c r="N36">
+        <v>289.765618</v>
+      </c>
+      <c r="O36">
+        <v>0.4244259760587643</v>
+      </c>
+      <c r="P36">
+        <v>0.4244259760587643</v>
+      </c>
+      <c r="Q36">
+        <v>7.20721143179489</v>
+      </c>
+      <c r="R36">
+        <v>64.864902886154</v>
+      </c>
+      <c r="S36">
+        <v>0.02379523715177604</v>
+      </c>
+      <c r="T36">
+        <v>0.02379523715177604</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G37">
+        <v>0.07461766666666667</v>
+      </c>
+      <c r="H37">
+        <v>0.223853</v>
+      </c>
+      <c r="I37">
+        <v>0.05606451653298771</v>
+      </c>
+      <c r="J37">
+        <v>0.05606451653298771</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>31.62744833333333</v>
+      </c>
+      <c r="N37">
+        <v>94.882345</v>
+      </c>
+      <c r="O37">
+        <v>0.1389762255623074</v>
+      </c>
+      <c r="P37">
+        <v>0.1389762255623074</v>
+      </c>
+      <c r="Q37">
+        <v>2.359966397253889</v>
+      </c>
+      <c r="R37">
+        <v>21.239697575285</v>
+      </c>
+      <c r="S37">
+        <v>0.007791634895730213</v>
+      </c>
+      <c r="T37">
+        <v>0.007791634895730213</v>
       </c>
     </row>
   </sheetData>
